--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,11 @@
     <sheet name="ResetPasswordPage" sheetId="3" r:id="rId3"/>
     <sheet name="HomePage" sheetId="4" r:id="rId4"/>
     <sheet name="UserPage" sheetId="5" r:id="rId5"/>
+    <sheet name="AddUserPage" sheetId="6" r:id="rId6"/>
+    <sheet name="EditUserPage" sheetId="7" r:id="rId7"/>
+    <sheet name="ViewUser" sheetId="8" r:id="rId8"/>
+    <sheet name="RolesPage" sheetId="9" r:id="rId9"/>
+    <sheet name="AddRoles" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Title</t>
   </si>
@@ -71,13 +76,73 @@
   </si>
   <si>
     <t>Users - QAlegend</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
+  </si>
+  <si>
+    <t>lijisha</t>
+  </si>
+  <si>
+    <t>validation error message</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
+  </si>
+  <si>
+    <t>sname</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>useremail</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>LIJISHA</t>
+  </si>
+  <si>
+    <t>VINEETH</t>
+  </si>
+  <si>
+    <t>LIJISHAVINEETH</t>
+  </si>
+  <si>
+    <t>newuname</t>
+  </si>
+  <si>
+    <t>abcd@abcd.com</t>
+  </si>
+  <si>
+    <t>Add user - QAlegend</t>
+  </si>
+  <si>
+    <t>Edit user - QAlegend</t>
+  </si>
+  <si>
+    <t>Roles - QAlegend</t>
+  </si>
+  <si>
+    <t>Add Role - QAlegend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +169,25 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,11 +209,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,7 +500,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>123456</v>
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -453,6 +540,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -570,15 +685,133 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -587,12 +820,53 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
+      <c r="A2" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="ViewUser" sheetId="8" r:id="rId8"/>
     <sheet name="RolesPage" sheetId="9" r:id="rId9"/>
     <sheet name="AddRoles" sheetId="10" r:id="rId10"/>
+    <sheet name="EditRoles" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Title</t>
   </si>
@@ -136,6 +137,9 @@
   </si>
   <si>
     <t>Add Role - QAlegend</t>
+  </si>
+  <si>
+    <t>Edit Role - Qalegend</t>
   </si>
 </sst>
 </file>
@@ -547,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -564,6 +568,31 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
